--- a/Descriptives_UK.xlsx
+++ b/Descriptives_UK.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="25440" windowHeight="14020"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="25440" windowHeight="14020" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptives" sheetId="1" r:id="rId1"/>
     <sheet name="Likert scale vars" sheetId="2" r:id="rId2"/>
     <sheet name="Multiple choice vars" sheetId="3" r:id="rId3"/>
-    <sheet name="Time-aspect" sheetId="6" r:id="rId4"/>
-    <sheet name="Cohort description" sheetId="5" r:id="rId5"/>
+    <sheet name="C-anxiety" sheetId="7" r:id="rId4"/>
+    <sheet name="Time-aspect" sheetId="6" r:id="rId5"/>
+    <sheet name="Cohort description" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>Females (N)</t>
   </si>
@@ -249,9 +250,6 @@
     <t>&lt;=6</t>
   </si>
   <si>
-    <t>How often do you feel lonely?</t>
-  </si>
-  <si>
     <t>total N</t>
   </si>
   <si>
@@ -274,6 +272,66 @@
   </si>
   <si>
     <t>UCL Covid-19 Social Study</t>
+  </si>
+  <si>
+    <t>report for baseline, visit 1</t>
+  </si>
+  <si>
+    <t>Missing (N)</t>
+  </si>
+  <si>
+    <t>at first visit during lockdown</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>replace with own questions</t>
+  </si>
+  <si>
+    <t>first week during lockdown</t>
+  </si>
+  <si>
+    <t>consider all timepoints!</t>
+  </si>
+  <si>
+    <t>only available one week in May (lockdown)</t>
+  </si>
+  <si>
+    <t>answer 1 (N)</t>
+  </si>
+  <si>
+    <t>answer 2 (N)</t>
+  </si>
+  <si>
+    <t>answer 3 (N)</t>
+  </si>
+  <si>
+    <t>answer 4 (N)</t>
+  </si>
+  <si>
+    <t>answer 5 (N)</t>
+  </si>
+  <si>
+    <t>Anxiety (?)</t>
+  </si>
+  <si>
+    <t>how happy you felt (0-10)</t>
+  </si>
+  <si>
+    <t>proportions of individuals with high level of anxiety</t>
+  </si>
+  <si>
+    <t>proportion of people YES</t>
+  </si>
+  <si>
+    <t>proportions!</t>
+  </si>
+  <si>
+    <t>weighted mean (SD)</t>
   </si>
 </sst>
 </file>
@@ -671,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -684,7 +742,7 @@
     <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -692,10 +750,10 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -703,8 +761,11 @@
         <v>11494</v>
       </c>
       <c r="C2" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -713,7 +774,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -722,7 +783,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -731,7 +792,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -740,7 +801,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -749,7 +810,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -758,7 +819,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -767,7 +828,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -776,7 +837,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -785,7 +846,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -794,35 +855,44 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>1964</v>
-      </c>
-      <c r="C17" s="1"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>1964</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>9530</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -831,10 +901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -942,12 +1012,389 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38.58203125" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38.58203125" customWidth="1"/>
+    <col min="2" max="2" width="43.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>62</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -965,8 +1412,11 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -984,8 +1434,11 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1002,384 +1455,22 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="38.58203125" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1398,7 +1489,7 @@
     </row>
     <row r="2" spans="1:2" ht="140" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>53</v>
